--- a/SQL_Server/imp_exp/makeCmd.xlsx
+++ b/SQL_Server/imp_exp/makeCmd.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="14805" windowHeight="7995"/>
@@ -9,22 +9,18 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="31">
   <si>
     <t>TableName</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t xml:space="preserve">bcp </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> out .\%DATA%\</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -131,7 +127,17 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>.Xml -T -d DBName</t>
+    <t>.\%DATA%\</t>
+  </si>
+  <si>
+    <t>.\%DATA%\</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>.Xml -T -d %DB%</t>
+  </si>
+  <si>
+    <t>.Xml -T -d %DB%</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -297,12 +303,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -344,7 +353,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -379,7 +388,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -601,71 +610,71 @@
   <cols>
     <col min="1" max="1" width="3.25" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="5.875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="9" style="3"/>
+    <col min="3" max="6" width="7.25" style="3" customWidth="1"/>
+    <col min="7" max="7" width="87.875" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.25" style="3" customWidth="1"/>
-    <col min="9" max="9" width="7.75" style="3" customWidth="1"/>
+    <col min="9" max="9" width="110.25" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6.375" style="3" customWidth="1"/>
-    <col min="11" max="11" width="12" style="3" customWidth="1"/>
-    <col min="12" max="12" width="7.125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="90.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="74.375" style="3" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="2.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="9" style="3"/>
+    <col min="14" max="15" width="9" style="3"/>
+    <col min="16" max="16" width="67.5" style="3" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="2.375" style="2" bestFit="1" customWidth="1"/>
     <col min="18" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="O1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P1" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.15">
@@ -674,58 +683,58 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G2" s="4" t="str">
-        <f>C2 &amp; B2 &amp; D2 &amp; B2 &amp; E2 &amp; F2</f>
+        <f>C2 &amp; B2 &amp; " out " &amp; D2 &amp; B2 &amp; E2 &amp; F2</f>
         <v>bcp TableA out .\%DATA%\TableA.tsv -c -t "\t" -r "\n" -S %SRV% -d %DB% -U %USER% -P %PASS%</v>
       </c>
       <c r="H2" s="4" t="str">
-        <f>"""select * from " &amp; B2 &amp; """ "</f>
-        <v xml:space="preserve">"select * from TableA" </v>
+        <f>"""SELECT * FROM " &amp; B2 &amp; """ "</f>
+        <v xml:space="preserve">"SELECT * FROM TableA" </v>
       </c>
       <c r="I2" s="4" t="str">
-        <f>C2 &amp; H2 &amp; B2 &amp; D2 &amp; B2 &amp; E2 &amp; F2</f>
-        <v>bcp "select * from TableA" TableA out .\%DATA%\TableA.tsv -c -t "\t" -r "\n" -S %SRV% -d %DB% -U %USER% -P %PASS%</v>
+        <f>C2 &amp; H2 &amp; "queryout " &amp; D2 &amp; B2 &amp; E2 &amp; F2</f>
+        <v>bcp "SELECT * FROM TableA" queryout .\%DATA%\TableA.tsv -c -t "\t" -r "\n" -S %SRV% -d %DB% -U %USER% -P %PASS%</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K2" s="4" t="str">
         <f>C2 &amp; B2 &amp; J2 &amp; B2 &amp; ".xml" &amp; F2</f>
         <v>bcp TableA format nul -c -t \t -x -f ./format/TableA.xml -S %SRV% -d %DB% -U %USER% -P %PASS%</v>
       </c>
       <c r="L2" s="4" t="str">
-        <f>"select @cnt=count(*) from " &amp; B2 &amp; "; print " &amp; "'" &amp; B2 &amp; " = ' +" &amp; " CAST(@cnt as varchar);"</f>
-        <v>select @cnt=count(*) from TableA; print 'TableA = ' + CAST(@cnt as varchar);</v>
+        <f>"SELECT @cnt=count(*) FROM " &amp; B2 &amp; "; PRINT " &amp; "'" &amp; B2 &amp; " = ' +" &amp; " CAST(@cnt as varchar);"</f>
+        <v>SELECT @cnt=count(*) FROM TableA; PRINT 'TableA = ' + CAST(@cnt as varchar);</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P2" s="4" t="str">
         <f>C2 &amp; B2 &amp; N2 &amp; B2 &amp; O2</f>
-        <v>bcp TableA format nul -c -t \t -x -f .\format\TableA.Xml -T -d DBName</v>
+        <v>bcp TableA format nul -c -t \t -x -f .\format\TableA.Xml -T -d %DB%</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
@@ -734,58 +743,58 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="E3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="5" t="str">
+        <f t="shared" ref="G3:G6" si="1">C3 &amp; B3 &amp; " out " &amp; D3 &amp; B3 &amp; E3 &amp; F3</f>
+        <v>bcp TableB out .\%DATA%\TableB.tsv -c -t "\t" -r "\n" -S %SRV% -d %DB% -U %USER% -P %PASS%</v>
+      </c>
+      <c r="H3" s="4" t="str">
+        <f t="shared" ref="H3:H6" si="2">"""SELECT * FROM " &amp; B3 &amp; """ "</f>
+        <v xml:space="preserve">"SELECT * FROM TableB" </v>
+      </c>
+      <c r="I3" s="4" t="str">
+        <f t="shared" ref="I3:I6" si="3">C3 &amp; H3 &amp; "queryout " &amp; D3 &amp; B3 &amp; E3 &amp; F3</f>
+        <v>bcp "SELECT * FROM TableB" queryout .\%DATA%\TableB.tsv -c -t "\t" -r "\n" -S %SRV% -d %DB% -U %USER% -P %PASS%</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="5" t="str">
+        <f t="shared" ref="K3:K6" si="4">C3 &amp; B3 &amp; J3 &amp; B3 &amp; ".xml" &amp; F3</f>
+        <v>bcp TableB format nul -c -t \t -x -f ./format/TableB.xml -S %SRV% -d %DB% -U %USER% -P %PASS%</v>
+      </c>
+      <c r="L3" s="5" t="str">
+        <f t="shared" ref="L3:L6" si="5">"SELECT @cnt=count(*) FROM " &amp; B3 &amp; "; PRINT " &amp; "'" &amp; B3 &amp; " = ' +" &amp; " CAST(@cnt as varchar);"</f>
+        <v>SELECT @cnt=count(*) FROM TableB; PRINT 'TableB = ' + CAST(@cnt as varchar);</v>
+      </c>
+      <c r="M3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="5" t="str">
-        <f t="shared" ref="G3:G6" si="1">C3 &amp; B3 &amp; D3 &amp; B3 &amp; E3</f>
-        <v>bcp TableB out .\%DATA%\TableB.tsv -c -t "\t" -r "\n"</v>
-      </c>
-      <c r="H3" s="4" t="str">
-        <f>"""select * from " &amp; B3 &amp; """ "</f>
-        <v xml:space="preserve">"select * from TableB" </v>
-      </c>
-      <c r="I3" s="4" t="str">
-        <f>C3 &amp; H3 &amp; B3 &amp; D3 &amp; B3 &amp; E3 &amp; F3</f>
-        <v>bcp "select * from TableB" TableB out .\%DATA%\TableB.tsv -c -t "\t" -r "\n" -S %SRV% -d %DB% -U %USER% -P %PASS%</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="K3" s="5" t="str">
-        <f t="shared" ref="K3:K6" si="2">C3 &amp; B3 &amp; J3 &amp; B3 &amp; ".xml" &amp; F3</f>
-        <v>bcp TableB format nul -c -t \t -x -f ./format/TableB.xml -S %SRV% -d %DB% -U %USER% -P %PASS%</v>
-      </c>
-      <c r="L3" s="5" t="str">
-        <f t="shared" ref="L3:L6" si="3">"select @cnt=count(*) from " &amp; B3 &amp; "; print " &amp; "'" &amp; B3 &amp; " = ' +" &amp; " CAST(@cnt as varchar);"</f>
-        <v>select @cnt=count(*) from TableB; print 'TableB = ' + CAST(@cnt as varchar);</v>
-      </c>
-      <c r="M3" s="5" t="s">
+      <c r="N3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="P3" s="5" t="str">
+        <f t="shared" ref="P3:P6" si="6">C3 &amp; B3 &amp; N3 &amp; B3 &amp; O3</f>
+        <v>bcp TableB format nul -c -t \t -x -f .\format\TableB.Xml -T -d %DB%</v>
+      </c>
+      <c r="Q3" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="P3" s="5" t="str">
-        <f t="shared" ref="P3:P6" si="4">C3 &amp; B3 &amp; N3 &amp; B3 &amp; O3</f>
-        <v>bcp TableB format nul -c -t \t -x -f .\format\TableB.Xml -T -d DBName</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
@@ -794,58 +803,58 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G4" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>bcp TableC out .\%DATA%\TableC.tsv -c -t "\t" -r "\n"</v>
+        <v>bcp TableC out .\%DATA%\TableC.tsv -c -t "\t" -r "\n" -S %SRV% -d %DB% -U %USER% -P %PASS%</v>
       </c>
       <c r="H4" s="4" t="str">
-        <f>"""select * from " &amp; B4 &amp; """ "</f>
-        <v xml:space="preserve">"select * from TableC" </v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">"SELECT * FROM TableC" </v>
       </c>
       <c r="I4" s="4" t="str">
-        <f>C4 &amp; H4 &amp; B4 &amp; D4 &amp; B4 &amp; E4 &amp; F4</f>
-        <v>bcp "select * from TableC" TableC out .\%DATA%\TableC.tsv -c -t "\t" -r "\n" -S %SRV% -d %DB% -U %USER% -P %PASS%</v>
+        <f t="shared" si="3"/>
+        <v>bcp "SELECT * FROM TableC" queryout .\%DATA%\TableC.tsv -c -t "\t" -r "\n" -S %SRV% -d %DB% -U %USER% -P %PASS%</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K4" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>bcp TableC format nul -c -t \t -x -f ./format/TableC.xml -S %SRV% -d %DB% -U %USER% -P %PASS%</v>
       </c>
       <c r="L4" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>select @cnt=count(*) from TableC; print 'TableC = ' + CAST(@cnt as varchar);</v>
+        <f t="shared" si="5"/>
+        <v>SELECT @cnt=count(*) FROM TableC; PRINT 'TableC = ' + CAST(@cnt as varchar);</v>
       </c>
       <c r="M4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="P4" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>bcp TableC format nul -c -t \t -x -f .\format\TableC.Xml -T -d %DB%</v>
+      </c>
+      <c r="Q4" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="P4" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>bcp TableC format nul -c -t \t -x -f .\format\TableC.Xml -T -d DBName</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
@@ -854,58 +863,58 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G5" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>bcp TableD out .\%DATA%\TableD.tsv -c -t "\t" -r "\n"</v>
+        <v>bcp TableD out .\%DATA%\TableD.tsv -c -t "\t" -r "\n" -S %SRV% -d %DB% -U %USER% -P %PASS%</v>
       </c>
       <c r="H5" s="4" t="str">
-        <f>"""select * from " &amp; B5 &amp; """ "</f>
-        <v xml:space="preserve">"select * from TableD" </v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">"SELECT * FROM TableD" </v>
       </c>
       <c r="I5" s="4" t="str">
-        <f>C5 &amp; H5 &amp; B5 &amp; D5 &amp; B5 &amp; E5 &amp; F5</f>
-        <v>bcp "select * from TableD" TableD out .\%DATA%\TableD.tsv -c -t "\t" -r "\n" -S %SRV% -d %DB% -U %USER% -P %PASS%</v>
+        <f t="shared" si="3"/>
+        <v>bcp "SELECT * FROM TableD" queryout .\%DATA%\TableD.tsv -c -t "\t" -r "\n" -S %SRV% -d %DB% -U %USER% -P %PASS%</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K5" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>bcp TableD format nul -c -t \t -x -f ./format/TableD.xml -S %SRV% -d %DB% -U %USER% -P %PASS%</v>
       </c>
       <c r="L5" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>select @cnt=count(*) from TableD; print 'TableD = ' + CAST(@cnt as varchar);</v>
+        <f t="shared" si="5"/>
+        <v>SELECT @cnt=count(*) FROM TableD; PRINT 'TableD = ' + CAST(@cnt as varchar);</v>
       </c>
       <c r="M5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="P5" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>bcp TableD format nul -c -t \t -x -f .\format\TableD.Xml -T -d %DB%</v>
+      </c>
+      <c r="Q5" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="P5" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>bcp TableD format nul -c -t \t -x -f .\format\TableD.Xml -T -d DBName</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
@@ -914,58 +923,58 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G6" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>bcp TableE out .\%DATA%\TableE.tsv -c -t "\t" -r "\n"</v>
+        <v>bcp TableE out .\%DATA%\TableE.tsv -c -t "\t" -r "\n" -S %SRV% -d %DB% -U %USER% -P %PASS%</v>
       </c>
       <c r="H6" s="4" t="str">
-        <f>"""select * from " &amp; B6 &amp; """ "</f>
-        <v xml:space="preserve">"select * from TableE" </v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">"SELECT * FROM TableE" </v>
       </c>
       <c r="I6" s="4" t="str">
-        <f>C6 &amp; H6 &amp; B6 &amp; D6 &amp; B6 &amp; E6 &amp; F6</f>
-        <v>bcp "select * from TableE" TableE out .\%DATA%\TableE.tsv -c -t "\t" -r "\n" -S %SRV% -d %DB% -U %USER% -P %PASS%</v>
+        <f t="shared" si="3"/>
+        <v>bcp "SELECT * FROM TableE" queryout .\%DATA%\TableE.tsv -c -t "\t" -r "\n" -S %SRV% -d %DB% -U %USER% -P %PASS%</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K6" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>bcp TableE format nul -c -t \t -x -f ./format/TableE.xml -S %SRV% -d %DB% -U %USER% -P %PASS%</v>
       </c>
       <c r="L6" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>select @cnt=count(*) from TableE; print 'TableE = ' + CAST(@cnt as varchar);</v>
+        <f t="shared" si="5"/>
+        <v>SELECT @cnt=count(*) FROM TableE; PRINT 'TableE = ' + CAST(@cnt as varchar);</v>
       </c>
       <c r="M6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="P6" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>bcp TableE format nul -c -t \t -x -f .\format\TableE.Xml -T -d %DB%</v>
+      </c>
+      <c r="Q6" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="N6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="P6" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>bcp TableE format nul -c -t \t -x -f .\format\TableE.Xml -T -d DBName</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.15">
@@ -986,7 +995,7 @@
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
       <c r="Q7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.15">
@@ -1007,7 +1016,7 @@
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
       <c r="Q8" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.15">
@@ -1028,17 +1037,17 @@
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
       <c r="Q9" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.15">
       <c r="L10" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>